--- a/spec/Jedzieni_un_apzimejumi.xlsx
+++ b/spec/Jedzieni_un_apzimejumi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github Repos\osudcbot\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30075BD-0A07-4A03-8DBD-C04060B808FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B289F137-05FB-48E8-A31F-8DFA64610645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD9C01BD-C36C-4CF8-81E2-3BA8CEB70215}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Discord </t>
   </si>
@@ -145,12 +145,6 @@
   </si>
   <si>
     <t>Vispārīgās prasības </t>
-  </si>
-  <si>
-    <t>FP </t>
-  </si>
-  <si>
-    <t>Funkcionālās prasības </t>
   </si>
   <si>
     <t>TP </t>
@@ -209,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -231,9 +225,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -552,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCD81A6-66D6-48C7-8960-CA16FEC1D2E4}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,10 +690,10 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -710,10 +701,10 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -721,10 +712,10 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -732,10 +723,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -743,24 +734,14 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="18" spans="1:3" ht="46.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:3" ht="46.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:3" ht="46.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:3" ht="46.8" customHeight="1" x14ac:dyDescent="0.3"/>
